--- a/DiscreteFourierTransform.StepByStep.xlsx
+++ b/DiscreteFourierTransform.StepByStep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>n' as time</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>phase</t>
-  </si>
-  <si>
-    <t>k value</t>
   </si>
   <si>
     <t>mag/N</t>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>Elem #</t>
-  </si>
-  <si>
-    <t>Columns are by k values</t>
   </si>
   <si>
     <t>DFT - X Bins by k columns</t>
@@ -281,7 +275,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37718106582384903"/>
+          <c:x val="0.37718106582384919"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -294,7 +288,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.28279396325459338"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.69349781277340417"/>
+          <c:w val="0.69349781277340439"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -374,23 +368,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="210541952"/>
-        <c:axId val="12260096"/>
+        <c:axId val="206181120"/>
+        <c:axId val="206692352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210541952"/>
+        <c:axId val="206181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12260096"/>
+        <c:crossAx val="206692352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12260096"/>
+        <c:axId val="206692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +392,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210541952"/>
+        <c:crossAx val="206181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -410,7 +404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -493,23 +487,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="12280192"/>
-        <c:axId val="12281728"/>
+        <c:axId val="206716928"/>
+        <c:axId val="206718464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12280192"/>
+        <c:axId val="206716928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12281728"/>
+        <c:crossAx val="206718464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12281728"/>
+        <c:axId val="206718464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +511,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12280192"/>
+        <c:crossAx val="206716928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -530,7 +524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -637,23 +631,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="12301824"/>
-        <c:axId val="12303360"/>
+        <c:axId val="206738560"/>
+        <c:axId val="206740096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12301824"/>
+        <c:axId val="206738560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12303360"/>
+        <c:crossAx val="206740096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12303360"/>
+        <c:axId val="206740096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +655,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12301824"/>
+        <c:crossAx val="206738560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -674,7 +668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -700,6 +694,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -780,23 +775,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="12322304"/>
-        <c:axId val="12323840"/>
+        <c:axId val="213275776"/>
+        <c:axId val="213277312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12322304"/>
+        <c:axId val="213275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12323840"/>
+        <c:crossAx val="213277312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12323840"/>
+        <c:axId val="213277312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,19 +799,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12322304"/>
+        <c:crossAx val="213275776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -923,23 +919,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="12360320"/>
-        <c:axId val="12366208"/>
+        <c:axId val="213309696"/>
+        <c:axId val="213319680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12360320"/>
+        <c:axId val="213309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12366208"/>
+        <c:crossAx val="213319680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12366208"/>
+        <c:axId val="213319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +943,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12360320"/>
+        <c:crossAx val="213309696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -960,7 +956,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2093,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2109,29 +2105,29 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2174,16 +2170,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <f>3*PI()/2</f>
-        <v>4.7123889803846897</v>
-      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2198,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2210,7 +2199,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -2219,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>0</v>
@@ -2659,7 +2648,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2690,13 +2679,13 @@
         <v>X4</v>
       </c>
       <c r="L30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="N30" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2999,7 +2988,7 @@
     </row>
     <row r="40" spans="4:14">
       <c r="F40" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" s="11" t="str">
         <f>IMSUM(G32:G39)</f>
@@ -3036,13 +3025,13 @@
     </row>
     <row r="42" spans="4:14">
       <c r="F42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="4:14">
       <c r="F43" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3071,7 +3060,7 @@
     </row>
     <row r="44" spans="4:14">
       <c r="F44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="3">
         <f>ROUND(POWER(POWER(IMREAL(G40),2)+POWER(IMAGINARY(G40),2),0.5),3)</f>
@@ -3108,7 +3097,7 @@
     </row>
     <row r="45" spans="4:14">
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="7" t="str">
         <f>IMPRODUCT(2,G40)</f>
@@ -3129,7 +3118,7 @@
     </row>
     <row r="46" spans="4:14">
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -3166,10 +3155,10 @@
     </row>
     <row r="48" spans="4:14">
       <c r="D48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -3235,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3251,14 +3240,14 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3310,7 +3299,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -3318,14 +3307,14 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3336,6 +3325,9 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>0</v>
@@ -3783,7 +3775,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="G26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3814,13 +3806,13 @@
         <v>X4</v>
       </c>
       <c r="L27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4123,7 +4115,7 @@
     </row>
     <row r="37" spans="4:14">
       <c r="F37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G37" s="11" t="str">
         <f>IMSUM(G29:G36)</f>
@@ -4171,13 +4163,13 @@
     </row>
     <row r="39" spans="4:14">
       <c r="F39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="4:14">
       <c r="F40" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4206,7 +4198,7 @@
     </row>
     <row r="41" spans="4:14">
       <c r="F41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="3">
         <f>ROUND(POWER(POWER(IMREAL(G37),2)+POWER(IMAGINARY(G37),2),0.5),3)</f>
@@ -4243,7 +4235,7 @@
     </row>
     <row r="42" spans="4:14">
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7" t="str">
         <f>IMPRODUCT(2,G37)</f>
@@ -4264,7 +4256,7 @@
     </row>
     <row r="43" spans="4:14">
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -4301,10 +4293,10 @@
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -4324,7 +4316,7 @@
     </row>
     <row r="46" spans="4:14">
       <c r="F46" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="18">
         <f>IF(IMAGINARY(G37)=0,0,ATAN2(IMREAL(G37),IMAGINARY(G37)))</f>

--- a/DiscreteFourierTransform.StepByStep.xlsx
+++ b/DiscreteFourierTransform.StepByStep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>n' as time</t>
   </si>
@@ -275,7 +275,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37718106582384919"/>
+          <c:x val="0.37718106582384947"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -288,7 +288,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.28279396325459338"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.69349781277340439"/>
+          <c:w val="0.69349781277340472"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -368,23 +368,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="206181120"/>
-        <c:axId val="206692352"/>
+        <c:axId val="103414016"/>
+        <c:axId val="103317504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206181120"/>
+        <c:axId val="103414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206692352"/>
+        <c:crossAx val="103317504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206692352"/>
+        <c:axId val="103317504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +392,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206181120"/>
+        <c:crossAx val="103414016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -404,7 +404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -436,13 +436,10 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Analysis!$G$47:$J$47</c:f>
@@ -485,25 +482,24 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="206716928"/>
-        <c:axId val="206718464"/>
+        <c:axId val="103333888"/>
+        <c:axId val="103335424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206716928"/>
+        <c:axId val="103333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206718464"/>
+        <c:crossAx val="103335424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206718464"/>
+        <c:axId val="103335424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +507,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206716928"/>
+        <c:crossAx val="103333888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -524,7 +520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -550,7 +546,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -631,23 +626,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="206738560"/>
-        <c:axId val="206740096"/>
+        <c:axId val="103953536"/>
+        <c:axId val="103955072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206738560"/>
+        <c:axId val="103953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206740096"/>
+        <c:crossAx val="103955072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206740096"/>
+        <c:axId val="103955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,20 +650,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206738560"/>
+        <c:crossAx val="103953536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -694,7 +688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -775,23 +768,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="213275776"/>
-        <c:axId val="213277312"/>
+        <c:axId val="103912576"/>
+        <c:axId val="103914112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213275776"/>
+        <c:axId val="103912576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213277312"/>
+        <c:crossAx val="103914112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213277312"/>
+        <c:axId val="103914112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,20 +792,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213275776"/>
+        <c:crossAx val="103912576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -919,23 +911,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="213309696"/>
-        <c:axId val="213319680"/>
+        <c:axId val="202602752"/>
+        <c:axId val="202616832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213309696"/>
+        <c:axId val="202602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213319680"/>
+        <c:crossAx val="202616832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213319680"/>
+        <c:axId val="202616832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +935,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213309696"/>
+        <c:crossAx val="202602752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -956,7 +948,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,16 +998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1033,7 +1025,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3733800" y="508000"/>
+          <a:off x="4552950" y="6591300"/>
           <a:ext cx="1181100" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,86 +1078,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2080" name="Picture 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1949450" y="6591300"/>
-          <a:ext cx="1600200" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2082" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1714500" y="7346950"/>
-          <a:ext cx="768350" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1015999</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -1185,7 +1097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1228,7 +1140,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1258,7 +1170,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1288,10 +1200,90 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2082800" y="8718550"/>
+          <a:ext cx="1289050" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1835150" y="7632700"/>
+          <a:ext cx="1657350" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2089,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:N15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3154,9 +3146,7 @@
       </c>
     </row>
     <row r="48" spans="4:14">
-      <c r="D48" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="D48" s="12"/>
       <c r="F48" t="s">
         <v>17</v>
       </c>
